--- a/data/user_study/results.xlsx
+++ b/data/user_study/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\euano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\euano\Desktop\Lvl4-Project\lvl4-project\data\user_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5EA50D-09AA-4FDE-A0D1-C0E980121B63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD141C4B-8BF0-4209-A98B-7B3DA0F0569A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="360" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,13 +96,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +732,57 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
+    <row r="21" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
